--- a/arrays.xlsx
+++ b/arrays.xlsx
@@ -340,13 +340,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1">
         <v>0</v>
       </c>
@@ -377,57 +377,63 @@
       <c r="J1">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>99.95999999999999</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="C2">
-        <v>99.98</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>99.98999999999999</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>99.98</v>
       </c>
       <c r="F2">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="G2">
+        <v>99.97</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
         <v>99.98</v>
       </c>
-      <c r="G2">
-        <v>99.98999999999999</v>
-      </c>
-      <c r="H2">
-        <v>99.98999999999999</v>
-      </c>
-      <c r="I2">
-        <v>99.98999999999999</v>
-      </c>
       <c r="J2">
-        <v>99.98999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>99.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
+        <v>99.94</v>
+      </c>
+      <c r="C3">
         <v>99.93000000000001</v>
       </c>
-      <c r="C3">
-        <v>99.95999999999999</v>
-      </c>
       <c r="D3">
-        <v>99.95</v>
+        <v>99.92</v>
       </c>
       <c r="E3">
-        <v>99.95999999999999</v>
+        <v>99.97</v>
       </c>
       <c r="F3">
-        <v>99.93000000000001</v>
+        <v>99.92</v>
       </c>
       <c r="G3">
         <v>99.94</v>
@@ -436,234 +442,293 @@
         <v>99.95</v>
       </c>
       <c r="I3">
-        <v>99.98999999999999</v>
+        <v>99.94</v>
       </c>
       <c r="J3">
-        <v>99.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="K3">
+        <v>99.95999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>99.77</v>
+        <v>99.87</v>
       </c>
       <c r="C4">
+        <v>99.91</v>
+      </c>
+      <c r="D4">
+        <v>99.81999999999999</v>
+      </c>
+      <c r="E4">
+        <v>99.88</v>
+      </c>
+      <c r="F4">
+        <v>99.81999999999999</v>
+      </c>
+      <c r="G4">
         <v>99.8</v>
       </c>
-      <c r="D4">
-        <v>99.84999999999999</v>
-      </c>
-      <c r="E4">
+      <c r="H4">
+        <v>99.81999999999999</v>
+      </c>
+      <c r="I4">
+        <v>99.83</v>
+      </c>
+      <c r="J4">
+        <v>99.73</v>
+      </c>
+      <c r="K4">
+        <v>99.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>99.59</v>
+      </c>
+      <c r="C5">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D5">
+        <v>99.67</v>
+      </c>
+      <c r="E5">
+        <v>99.62</v>
+      </c>
+      <c r="F5">
         <v>99.81</v>
       </c>
-      <c r="F4">
-        <v>99.84</v>
-      </c>
-      <c r="G4">
-        <v>99.79000000000001</v>
-      </c>
-      <c r="H4">
-        <v>99.92</v>
-      </c>
-      <c r="I4">
-        <v>99.75</v>
-      </c>
-      <c r="J4">
-        <v>99.86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>99.56</v>
-      </c>
-      <c r="C5">
-        <v>99.62</v>
-      </c>
-      <c r="D5">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E5">
+      <c r="G5">
+        <v>99.61</v>
+      </c>
+      <c r="H5">
         <v>99.65000000000001</v>
       </c>
-      <c r="F5">
-        <v>99.69</v>
-      </c>
-      <c r="G5">
-        <v>99.68000000000001</v>
-      </c>
-      <c r="H5">
-        <v>99.68000000000001</v>
-      </c>
       <c r="I5">
-        <v>99.58</v>
+        <v>99.7</v>
       </c>
       <c r="J5">
-        <v>99.59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>99.65000000000001</v>
+      </c>
+      <c r="K5">
+        <v>99.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>99.26000000000001</v>
+        <v>99.16</v>
       </c>
       <c r="C6">
-        <v>99.28</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D6">
+        <v>99.06</v>
+      </c>
+      <c r="E6">
+        <v>99.33</v>
+      </c>
+      <c r="F6">
+        <v>99.15000000000001</v>
+      </c>
+      <c r="G6">
+        <v>99.04000000000001</v>
+      </c>
+      <c r="H6">
+        <v>99.17</v>
+      </c>
+      <c r="I6">
+        <v>99.27</v>
+      </c>
+      <c r="J6">
         <v>99.14</v>
       </c>
-      <c r="E6">
-        <v>99.19</v>
-      </c>
-      <c r="F6">
-        <v>99.01000000000001</v>
-      </c>
-      <c r="G6">
-        <v>99.17</v>
-      </c>
-      <c r="H6">
-        <v>99.31999999999999</v>
-      </c>
-      <c r="I6">
-        <v>99.34</v>
-      </c>
-      <c r="J6">
-        <v>99.41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>98.44</v>
+        <v>98.41</v>
       </c>
       <c r="C7">
-        <v>98.25</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D7">
+        <v>98.31</v>
+      </c>
+      <c r="E7">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="F7">
         <v>98.29000000000001</v>
       </c>
-      <c r="E7">
-        <v>98.5</v>
-      </c>
-      <c r="F7">
-        <v>98.28</v>
-      </c>
       <c r="G7">
-        <v>98.47</v>
+        <v>98.37</v>
       </c>
       <c r="H7">
-        <v>98.73</v>
+        <v>98.27</v>
       </c>
       <c r="I7">
-        <v>98.19</v>
+        <v>98.3</v>
       </c>
       <c r="J7">
-        <v>98.27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>98.41</v>
+      </c>
+      <c r="K7">
+        <v>98.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>96.08</v>
+        <v>96.58</v>
       </c>
       <c r="C8">
-        <v>96.51000000000001</v>
+        <v>96.45999999999999</v>
       </c>
       <c r="D8">
-        <v>96.59999999999999</v>
+        <v>96.63</v>
       </c>
       <c r="E8">
-        <v>96.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="F8">
-        <v>96.41</v>
+        <v>96.3</v>
       </c>
       <c r="G8">
-        <v>96.3</v>
+        <v>96.84</v>
       </c>
       <c r="H8">
-        <v>96.56999999999999</v>
+        <v>96.67</v>
       </c>
       <c r="I8">
-        <v>96.5</v>
+        <v>96.45999999999999</v>
       </c>
       <c r="J8">
-        <v>96.11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>96.61</v>
+      </c>
+      <c r="K8">
+        <v>96.29000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>91.81999999999999</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="C9">
-        <v>92.02</v>
+        <v>92.18000000000001</v>
       </c>
       <c r="D9">
-        <v>91.79000000000001</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="E9">
+        <v>92.43000000000001</v>
+      </c>
+      <c r="F9">
+        <v>92.44</v>
+      </c>
+      <c r="G9">
         <v>91.84</v>
       </c>
-      <c r="F9">
-        <v>92.17</v>
-      </c>
-      <c r="G9">
-        <v>91.51000000000001</v>
-      </c>
       <c r="H9">
-        <v>92.11</v>
+        <v>92.01000000000001</v>
       </c>
       <c r="I9">
-        <v>92.65000000000001</v>
+        <v>91.43000000000001</v>
       </c>
       <c r="J9">
-        <v>91.87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="K9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10">
-        <v>76.55</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="C10">
-        <v>77.04000000000001</v>
+        <v>78.34</v>
       </c>
       <c r="D10">
-        <v>75.87</v>
+        <v>76.43000000000001</v>
       </c>
       <c r="E10">
-        <v>75.81</v>
+        <v>76.13</v>
       </c>
       <c r="F10">
-        <v>77.05</v>
+        <v>76.39</v>
       </c>
       <c r="G10">
-        <v>75.75</v>
+        <v>76.91</v>
       </c>
       <c r="H10">
-        <v>76.43000000000001</v>
+        <v>76.12</v>
       </c>
       <c r="I10">
-        <v>76.79000000000001</v>
+        <v>76.16</v>
       </c>
       <c r="J10">
-        <v>77.01000000000001</v>
+        <v>75.92</v>
+      </c>
+      <c r="K10">
+        <v>76.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/arrays.xlsx
+++ b/arrays.xlsx
@@ -351,381 +351,381 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B2">
         <v>99.98999999999999</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D2">
-        <v>99.98999999999999</v>
+        <v>99.91</v>
       </c>
       <c r="E2">
-        <v>99.98</v>
+        <v>99.58</v>
       </c>
       <c r="F2">
-        <v>99.98999999999999</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="G2">
-        <v>99.97</v>
+        <v>98.45</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>96.92</v>
       </c>
       <c r="I2">
-        <v>99.98</v>
+        <v>92.09</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>77.34</v>
       </c>
       <c r="K2">
-        <v>99.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B3">
-        <v>99.94</v>
+        <v>99.98</v>
       </c>
       <c r="C3">
         <v>99.93000000000001</v>
       </c>
       <c r="D3">
-        <v>99.92</v>
+        <v>99.89</v>
       </c>
       <c r="E3">
-        <v>99.97</v>
+        <v>99.56</v>
       </c>
       <c r="F3">
-        <v>99.92</v>
+        <v>99.2</v>
       </c>
       <c r="G3">
-        <v>99.94</v>
+        <v>97.98</v>
       </c>
       <c r="H3">
-        <v>99.95</v>
+        <v>96.81999999999999</v>
       </c>
       <c r="I3">
-        <v>99.94</v>
+        <v>92.16</v>
       </c>
       <c r="J3">
-        <v>99.95999999999999</v>
+        <v>76.78</v>
       </c>
       <c r="K3">
-        <v>99.95999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B4">
-        <v>99.87</v>
+        <v>99.98</v>
       </c>
       <c r="C4">
-        <v>99.91</v>
+        <v>99.92</v>
       </c>
       <c r="D4">
-        <v>99.81999999999999</v>
+        <v>99.83</v>
       </c>
       <c r="E4">
-        <v>99.88</v>
+        <v>99.53</v>
       </c>
       <c r="F4">
-        <v>99.81999999999999</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="G4">
-        <v>99.8</v>
+        <v>98.38</v>
       </c>
       <c r="H4">
-        <v>99.81999999999999</v>
+        <v>96.59</v>
       </c>
       <c r="I4">
-        <v>99.83</v>
+        <v>92.53</v>
       </c>
       <c r="J4">
-        <v>99.73</v>
+        <v>76.76000000000001</v>
       </c>
       <c r="K4">
-        <v>99.84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B5">
-        <v>99.59</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>99.59999999999999</v>
+        <v>99.92</v>
       </c>
       <c r="D5">
-        <v>99.67</v>
+        <v>99.86</v>
       </c>
       <c r="E5">
-        <v>99.62</v>
+        <v>99.66</v>
       </c>
       <c r="F5">
-        <v>99.81</v>
+        <v>99.27</v>
       </c>
       <c r="G5">
-        <v>99.61</v>
+        <v>98.34999999999999</v>
       </c>
       <c r="H5">
-        <v>99.65000000000001</v>
+        <v>96.39</v>
       </c>
       <c r="I5">
-        <v>99.7</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="J5">
-        <v>99.65000000000001</v>
+        <v>76.16</v>
       </c>
       <c r="K5">
-        <v>99.63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B6">
-        <v>99.16</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>99.09999999999999</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="D6">
-        <v>99.06</v>
+        <v>99.86</v>
       </c>
       <c r="E6">
-        <v>99.33</v>
+        <v>99.69</v>
       </c>
       <c r="F6">
-        <v>99.15000000000001</v>
+        <v>99.28</v>
       </c>
       <c r="G6">
-        <v>99.04000000000001</v>
+        <v>98.41</v>
       </c>
       <c r="H6">
-        <v>99.17</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="I6">
-        <v>99.27</v>
+        <v>91.87</v>
       </c>
       <c r="J6">
-        <v>99.14</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K6">
-        <v>99.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B7">
-        <v>98.41</v>
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>98.40000000000001</v>
+        <v>99.91</v>
       </c>
       <c r="D7">
-        <v>98.31</v>
+        <v>99.88</v>
       </c>
       <c r="E7">
-        <v>98.26000000000001</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="F7">
-        <v>98.29000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="G7">
-        <v>98.37</v>
+        <v>98.28</v>
       </c>
       <c r="H7">
-        <v>98.27</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="I7">
-        <v>98.3</v>
+        <v>91.48</v>
       </c>
       <c r="J7">
-        <v>98.41</v>
+        <v>75.61</v>
       </c>
       <c r="K7">
-        <v>98.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B8">
-        <v>96.58</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="C8">
-        <v>96.45999999999999</v>
+        <v>99.92</v>
       </c>
       <c r="D8">
-        <v>96.63</v>
+        <v>99.83</v>
       </c>
       <c r="E8">
-        <v>96.7</v>
+        <v>99.7</v>
       </c>
       <c r="F8">
-        <v>96.3</v>
+        <v>99.06</v>
       </c>
       <c r="G8">
-        <v>96.84</v>
+        <v>97.92</v>
       </c>
       <c r="H8">
-        <v>96.67</v>
+        <v>96.48</v>
       </c>
       <c r="I8">
-        <v>96.45999999999999</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="J8">
-        <v>96.61</v>
+        <v>76.37</v>
       </c>
       <c r="K8">
-        <v>96.29000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B9">
-        <v>91.68000000000001</v>
+        <v>99.98</v>
       </c>
       <c r="C9">
-        <v>92.18000000000001</v>
+        <v>99.95</v>
       </c>
       <c r="D9">
-        <v>91.95999999999999</v>
+        <v>99.84</v>
       </c>
       <c r="E9">
-        <v>92.43000000000001</v>
+        <v>99.58</v>
       </c>
       <c r="F9">
-        <v>92.44</v>
+        <v>99.19</v>
       </c>
       <c r="G9">
-        <v>91.84</v>
+        <v>98.48</v>
       </c>
       <c r="H9">
-        <v>92.01000000000001</v>
+        <v>97.06999999999999</v>
       </c>
       <c r="I9">
-        <v>91.43000000000001</v>
+        <v>92.31</v>
       </c>
       <c r="J9">
-        <v>92.59999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="K9">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B10">
-        <v>76.81999999999999</v>
+        <v>99.98</v>
       </c>
       <c r="C10">
-        <v>78.34</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D10">
-        <v>76.43000000000001</v>
+        <v>99.88</v>
       </c>
       <c r="E10">
-        <v>76.13</v>
+        <v>99.55</v>
       </c>
       <c r="F10">
-        <v>76.39</v>
+        <v>99.18000000000001</v>
       </c>
       <c r="G10">
-        <v>76.91</v>
+        <v>98.25</v>
       </c>
       <c r="H10">
-        <v>76.12</v>
+        <v>96.28</v>
       </c>
       <c r="I10">
-        <v>76.16</v>
+        <v>92.05</v>
       </c>
       <c r="J10">
-        <v>75.92</v>
+        <v>75.72</v>
       </c>
       <c r="K10">
-        <v>76.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>99.92</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>99.83</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>99.55</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>99.20999999999999</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>98.43000000000001</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>96.28</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>92.23</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>75.77</v>
       </c>
       <c r="K11">
         <v>1</v>

--- a/arrays.xlsx
+++ b/arrays.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kynor\Documents\Cours\SI4\Algo\MiniProjetAlgo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F1FA48-FEB8-4FAC-A47F-95D7F804E361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="5490" yWindow="1530" windowWidth="21600" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,11 +58,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +112,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -130,9 +144,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,6 +196,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -339,14 +389,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -381,351 +433,351 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2">
-        <v>99.98999999999999</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>99.93000000000001</v>
+        <v>100</v>
       </c>
       <c r="D2">
+        <v>99.92</v>
+      </c>
+      <c r="E2">
+        <v>99.69</v>
+      </c>
+      <c r="F2">
+        <v>99.18</v>
+      </c>
+      <c r="G2">
+        <v>98.21</v>
+      </c>
+      <c r="H2">
+        <v>96.23</v>
+      </c>
+      <c r="I2">
+        <v>92.06</v>
+      </c>
+      <c r="J2">
+        <v>79.239999999999995</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>99.98</v>
+      </c>
+      <c r="D3">
+        <v>99.92</v>
+      </c>
+      <c r="E3">
+        <v>99.75</v>
+      </c>
+      <c r="F3">
+        <v>99.39</v>
+      </c>
+      <c r="G3">
+        <v>98.59</v>
+      </c>
+      <c r="H3">
+        <v>96.44</v>
+      </c>
+      <c r="I3">
+        <v>91.69</v>
+      </c>
+      <c r="J3">
+        <v>79.209999999999994</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>99.99</v>
+      </c>
+      <c r="D4">
+        <v>99.94</v>
+      </c>
+      <c r="E4">
+        <v>99.68</v>
+      </c>
+      <c r="F4">
+        <v>99.22</v>
+      </c>
+      <c r="G4">
+        <v>98.49</v>
+      </c>
+      <c r="H4">
+        <v>96.2</v>
+      </c>
+      <c r="I4">
+        <v>92.33</v>
+      </c>
+      <c r="J4">
+        <v>79.56</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>99.99</v>
+      </c>
+      <c r="E5">
+        <v>99.67</v>
+      </c>
+      <c r="F5">
+        <v>99.31</v>
+      </c>
+      <c r="G5">
+        <v>98.23</v>
+      </c>
+      <c r="H5">
+        <v>96.35</v>
+      </c>
+      <c r="I5">
+        <v>91.45</v>
+      </c>
+      <c r="J5">
+        <v>79.41</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
         <v>99.91</v>
       </c>
-      <c r="E2">
-        <v>99.58</v>
-      </c>
-      <c r="F2">
-        <v>99.29000000000001</v>
-      </c>
-      <c r="G2">
-        <v>98.45</v>
-      </c>
-      <c r="H2">
-        <v>96.92</v>
-      </c>
-      <c r="I2">
-        <v>92.09</v>
-      </c>
-      <c r="J2">
-        <v>77.34</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
+      <c r="E6">
+        <v>99.68</v>
+      </c>
+      <c r="F6">
+        <v>99.39</v>
+      </c>
+      <c r="G6">
+        <v>98.23</v>
+      </c>
+      <c r="H6">
+        <v>96.27</v>
+      </c>
+      <c r="I6">
+        <v>91.95</v>
+      </c>
+      <c r="J6">
+        <v>79.19</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>99.96</v>
+      </c>
+      <c r="E7">
+        <v>99.74</v>
+      </c>
+      <c r="F7">
+        <v>99.4</v>
+      </c>
+      <c r="G7">
+        <v>98.33</v>
+      </c>
+      <c r="H7">
+        <v>95.79</v>
+      </c>
+      <c r="I7">
+        <v>91.49</v>
+      </c>
+      <c r="J7">
+        <v>78.47</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>99.91</v>
+      </c>
+      <c r="E8">
+        <v>99.74</v>
+      </c>
+      <c r="F8">
+        <v>99.22</v>
+      </c>
+      <c r="G8">
+        <v>98.22</v>
+      </c>
+      <c r="H8">
+        <v>96.17</v>
+      </c>
+      <c r="I8">
+        <v>91.6</v>
+      </c>
+      <c r="J8">
+        <v>79.48</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
         <v>99.98</v>
       </c>
-      <c r="C3">
-        <v>99.93000000000001</v>
-      </c>
-      <c r="D3">
-        <v>99.89</v>
-      </c>
-      <c r="E3">
-        <v>99.56</v>
-      </c>
-      <c r="F3">
-        <v>99.2</v>
-      </c>
-      <c r="G3">
-        <v>97.98</v>
-      </c>
-      <c r="H3">
-        <v>96.81999999999999</v>
-      </c>
-      <c r="I3">
-        <v>92.16</v>
-      </c>
-      <c r="J3">
-        <v>76.78</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>100</v>
-      </c>
-      <c r="B4">
+      <c r="D9">
+        <v>99.93</v>
+      </c>
+      <c r="E9">
+        <v>99.87</v>
+      </c>
+      <c r="F9">
+        <v>99.43</v>
+      </c>
+      <c r="G9">
+        <v>98.35</v>
+      </c>
+      <c r="H9">
+        <v>96.29</v>
+      </c>
+      <c r="I9">
+        <v>91.83</v>
+      </c>
+      <c r="J9">
+        <v>78.95</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>99.96</v>
+      </c>
+      <c r="E10">
+        <v>99.84</v>
+      </c>
+      <c r="F10">
+        <v>99.44</v>
+      </c>
+      <c r="G10">
+        <v>98.29</v>
+      </c>
+      <c r="H10">
+        <v>96.33</v>
+      </c>
+      <c r="I10">
+        <v>91.84</v>
+      </c>
+      <c r="J10">
+        <v>79.53</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
         <v>99.98</v>
       </c>
-      <c r="C4">
-        <v>99.92</v>
-      </c>
-      <c r="D4">
-        <v>99.83</v>
-      </c>
-      <c r="E4">
-        <v>99.53</v>
-      </c>
-      <c r="F4">
-        <v>99.29000000000001</v>
-      </c>
-      <c r="G4">
-        <v>98.38</v>
-      </c>
-      <c r="H4">
-        <v>96.59</v>
-      </c>
-      <c r="I4">
-        <v>92.53</v>
-      </c>
-      <c r="J4">
-        <v>76.76000000000001</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>100</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>99.92</v>
-      </c>
-      <c r="D5">
-        <v>99.86</v>
-      </c>
-      <c r="E5">
-        <v>99.66</v>
-      </c>
-      <c r="F5">
-        <v>99.27</v>
-      </c>
-      <c r="G5">
-        <v>98.34999999999999</v>
-      </c>
-      <c r="H5">
-        <v>96.39</v>
-      </c>
-      <c r="I5">
-        <v>92.04000000000001</v>
-      </c>
-      <c r="J5">
-        <v>76.16</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>100</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6">
-        <v>99.95999999999999</v>
-      </c>
-      <c r="D6">
-        <v>99.86</v>
-      </c>
-      <c r="E6">
-        <v>99.69</v>
-      </c>
-      <c r="F6">
-        <v>99.28</v>
-      </c>
-      <c r="G6">
-        <v>98.41</v>
-      </c>
-      <c r="H6">
-        <v>96.43000000000001</v>
-      </c>
-      <c r="I6">
-        <v>91.87</v>
-      </c>
-      <c r="J6">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>99.91</v>
-      </c>
-      <c r="D7">
-        <v>99.88</v>
-      </c>
-      <c r="E7">
-        <v>99.45999999999999</v>
-      </c>
-      <c r="F7">
-        <v>99.2</v>
-      </c>
-      <c r="G7">
-        <v>98.28</v>
-      </c>
-      <c r="H7">
-        <v>96.31999999999999</v>
-      </c>
-      <c r="I7">
-        <v>91.48</v>
-      </c>
-      <c r="J7">
-        <v>75.61</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>100</v>
-      </c>
-      <c r="B8">
-        <v>99.98999999999999</v>
-      </c>
-      <c r="C8">
-        <v>99.92</v>
-      </c>
-      <c r="D8">
-        <v>99.83</v>
-      </c>
-      <c r="E8">
-        <v>99.7</v>
-      </c>
-      <c r="F8">
-        <v>99.06</v>
-      </c>
-      <c r="G8">
-        <v>97.92</v>
-      </c>
-      <c r="H8">
-        <v>96.48</v>
-      </c>
-      <c r="I8">
-        <v>91.84999999999999</v>
-      </c>
-      <c r="J8">
-        <v>76.37</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>100</v>
-      </c>
-      <c r="B9">
-        <v>99.98</v>
-      </c>
-      <c r="C9">
-        <v>99.95</v>
-      </c>
-      <c r="D9">
-        <v>99.84</v>
-      </c>
-      <c r="E9">
-        <v>99.58</v>
-      </c>
-      <c r="F9">
-        <v>99.19</v>
-      </c>
-      <c r="G9">
-        <v>98.48</v>
-      </c>
-      <c r="H9">
-        <v>97.06999999999999</v>
-      </c>
-      <c r="I9">
-        <v>92.31</v>
-      </c>
-      <c r="J9">
-        <v>75.7</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>100</v>
-      </c>
-      <c r="B10">
-        <v>99.98</v>
-      </c>
-      <c r="C10">
-        <v>99.93000000000001</v>
-      </c>
-      <c r="D10">
-        <v>99.88</v>
-      </c>
-      <c r="E10">
-        <v>99.55</v>
-      </c>
-      <c r="F10">
-        <v>99.18000000000001</v>
-      </c>
-      <c r="G10">
-        <v>98.25</v>
-      </c>
-      <c r="H10">
-        <v>96.28</v>
-      </c>
-      <c r="I10">
-        <v>92.05</v>
-      </c>
-      <c r="J10">
-        <v>75.72</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>100</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>99.92</v>
-      </c>
-      <c r="D11">
-        <v>99.83</v>
-      </c>
       <c r="E11">
-        <v>99.55</v>
+        <v>99.75</v>
       </c>
       <c r="F11">
-        <v>99.20999999999999</v>
+        <v>99.42</v>
       </c>
       <c r="G11">
-        <v>98.43000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="H11">
-        <v>96.28</v>
+        <v>96.74</v>
       </c>
       <c r="I11">
-        <v>92.23</v>
+        <v>91.45</v>
       </c>
       <c r="J11">
-        <v>75.77</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="K11">
         <v>1</v>
